--- a/ProyectoFinal/Doc/Diagrama-de-Gantt_Alonso_Hernández.xlsx
+++ b/ProyectoFinal/Doc/Diagrama-de-Gantt_Alonso_Hernández.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Documents\Escuela\Lab. Computo\Repositorio\315058765_PROYECTOFINAL2022-2_GPO09\ProyectoFinal\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A0DA46-3C10-4497-938C-F8A7B989BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAADF515-DDCF-4C16-A160-03539131C2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>Nombre de la tarea</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>En progreso</t>
   </si>
   <si>
     <t>Terminado</t>
@@ -631,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:BX1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -922,7 +919,7 @@
     <row r="3" spans="1:76" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>44627</v>
@@ -931,7 +928,7 @@
         <v>44692</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>5</v>
@@ -1010,7 +1007,7 @@
     <row r="4" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6">
         <v>44629</v>
@@ -1019,10 +1016,10 @@
         <v>44634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1098,7 +1095,7 @@
     <row r="5" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="15">
         <v>44636</v>
@@ -1107,10 +1104,10 @@
         <v>44642</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1186,7 +1183,7 @@
     <row r="6" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15">
         <v>44636</v>
@@ -1195,10 +1192,10 @@
         <v>44638</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="8"/>
@@ -1274,7 +1271,7 @@
     <row r="7" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>44639</v>
@@ -1283,10 +1280,10 @@
         <v>44640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1362,7 +1359,7 @@
     <row r="8" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <v>44640</v>
@@ -1371,10 +1368,10 @@
         <v>44641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1450,7 +1447,7 @@
     <row r="9" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10">
         <v>44643</v>
@@ -1459,10 +1456,10 @@
         <v>44649</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1538,7 +1535,7 @@
     <row r="10" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10">
         <v>44644</v>
@@ -1547,10 +1544,10 @@
         <v>44645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1626,7 +1623,7 @@
     <row r="11" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10">
         <v>44646</v>
@@ -1635,10 +1632,10 @@
         <v>44647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1714,7 +1711,7 @@
     <row r="12" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>44648</v>
@@ -1723,10 +1720,10 @@
         <v>44649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1802,7 +1799,7 @@
     <row r="13" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10">
         <v>44650</v>
@@ -1811,10 +1808,10 @@
         <v>44656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1890,7 +1887,7 @@
     <row r="14" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
         <v>44651</v>
@@ -1899,10 +1896,10 @@
         <v>44652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1978,7 +1975,7 @@
     <row r="15" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10">
         <v>44653</v>
@@ -1987,10 +1984,10 @@
         <v>44654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2066,7 +2063,7 @@
     <row r="16" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10">
         <v>44655</v>
@@ -2075,10 +2072,10 @@
         <v>44656</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2154,7 +2151,7 @@
     <row r="17" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10">
         <v>44657</v>
@@ -2163,10 +2160,10 @@
         <v>44663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2242,7 +2239,7 @@
     <row r="18" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10">
         <v>44658</v>
@@ -2251,10 +2248,10 @@
         <v>44659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2330,7 +2327,7 @@
     <row r="19" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="10">
         <v>44660</v>
@@ -2339,10 +2336,10 @@
         <v>44661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2418,7 +2415,7 @@
     <row r="20" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10">
         <v>44662</v>
@@ -2427,10 +2424,10 @@
         <v>44662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2506,7 +2503,7 @@
     <row r="21" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10">
         <v>44664</v>
@@ -2515,10 +2512,10 @@
         <v>44671</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2594,7 +2591,7 @@
     <row r="22" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="10">
         <v>44665</v>
@@ -2603,10 +2600,10 @@
         <v>44666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2682,7 +2679,7 @@
     <row r="23" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="10">
         <v>44667</v>
@@ -2691,10 +2688,10 @@
         <v>44668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2770,7 +2767,7 @@
     <row r="24" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10">
         <v>44669</v>
@@ -2779,10 +2776,10 @@
         <v>44669</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2858,7 +2855,7 @@
     <row r="25" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="10">
         <v>44671</v>
@@ -2867,10 +2864,10 @@
         <v>44678</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2946,7 +2943,7 @@
     <row r="26" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10">
         <v>44672</v>
@@ -2955,10 +2952,10 @@
         <v>44673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -3034,7 +3031,7 @@
     <row r="27" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="10">
         <v>44674</v>
@@ -3043,10 +3040,10 @@
         <v>44675</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3122,7 +3119,7 @@
     <row r="28" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="10">
         <v>44676</v>
@@ -3131,10 +3128,10 @@
         <v>44676</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3210,7 +3207,7 @@
     <row r="29" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="10">
         <v>44678</v>
@@ -3219,10 +3216,10 @@
         <v>44684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -3298,7 +3295,7 @@
     <row r="30" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="10">
         <v>44679</v>
@@ -3307,10 +3304,10 @@
         <v>44679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -3386,7 +3383,7 @@
     <row r="31" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="10">
         <v>44680</v>
@@ -3395,10 +3392,10 @@
         <v>44680</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -3474,7 +3471,7 @@
     <row r="32" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>44683</v>
@@ -3483,10 +3480,10 @@
         <v>44683</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -3562,7 +3559,7 @@
     <row r="33" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10">
         <v>44662</v>
@@ -3571,10 +3568,10 @@
         <v>44663</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -3650,7 +3647,7 @@
     <row r="34" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="10">
         <v>44663</v>
@@ -3659,10 +3656,10 @@
         <v>44664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3738,7 +3735,7 @@
     <row r="35" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>44665</v>
@@ -3747,10 +3744,10 @@
         <v>44665</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -3826,7 +3823,7 @@
     <row r="36" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10">
         <v>44665</v>
@@ -3835,10 +3832,10 @@
         <v>44666</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -3914,7 +3911,7 @@
     <row r="37" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>44671</v>
@@ -3923,10 +3920,10 @@
         <v>44672</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4002,7 +3999,7 @@
     <row r="38" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="10">
         <v>44683</v>
@@ -4011,10 +4008,10 @@
         <v>44683</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4090,7 +4087,7 @@
     <row r="39" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="10">
         <v>44685</v>
@@ -4099,10 +4096,10 @@
         <v>44686</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -4178,7 +4175,7 @@
     <row r="40" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="10">
         <v>44686</v>
@@ -4187,10 +4184,10 @@
         <v>44688</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
